--- a/document/schema.xlsx
+++ b/document/schema.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\basicwebsite\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0622C228-B43F-424A-BCB8-7EC550BF4480}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all schema" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Schema</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Description (TH)</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>BRANCH_RATING</t>
   </si>
   <si>
-    <t>ORDER</t>
-  </si>
-  <si>
     <t>INVOICE</t>
   </si>
   <si>
@@ -116,20 +111,47 @@
     <t>SHOPPING_CART</t>
   </si>
   <si>
-    <t>CREDIT_CARD</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
-  </si>
-  <si>
     <t>SHIPPING</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PAYMENT_METHOD</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ORDER</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ORDER_DETAIL</t>
+  </si>
+  <si>
+    <t>PAYMENT_CREDIT_CARD</t>
+  </si>
+  <si>
+    <t>SHIPPING_METHOD</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
+    <t>Customer Configuration</t>
+  </si>
+  <si>
+    <t>Employee Configuration</t>
+  </si>
+  <si>
+    <t>Store Configuration</t>
+  </si>
+  <si>
+    <t>Branch Configuration</t>
+  </si>
+  <si>
+    <t>Payment Configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,19 +159,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,15 +196,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,296 +526,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f t="shared" ref="A2:A4" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>ROW()-1</f>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" ref="A6:A30" si="1">ROW()-1</f>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>